--- a/image/design/진행상황.xlsx
+++ b/image/design/진행상황.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t xml:space="preserve">수정사항</t>
   </si>
@@ -30,6 +30,9 @@
     <t xml:space="preserve">진척상황</t>
   </si>
   <si>
+    <t xml:space="preserve">경로</t>
+  </si>
+  <si>
     <t xml:space="preserve">상태</t>
   </si>
   <si>
@@ -39,6 +42,9 @@
     <t xml:space="preserve">home</t>
   </si>
   <si>
+    <t xml:space="preserve">index.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">완료</t>
   </si>
   <si>
@@ -51,6 +57,9 @@
     <t xml:space="preserve">1student_01main</t>
   </si>
   <si>
+    <t xml:space="preserve">student-main.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">student-main 탭</t>
   </si>
   <si>
@@ -66,18 +75,33 @@
     <t xml:space="preserve">1student_01main_3_attend</t>
   </si>
   <si>
+    <t xml:space="preserve">병합된 테이블 줄 색상</t>
+  </si>
+  <si>
     <t xml:space="preserve">1student_01main_4_consult</t>
   </si>
   <si>
+    <t xml:space="preserve">개발자모드 들어가서 오류</t>
+  </si>
+  <si>
     <t xml:space="preserve">1student_02inout</t>
   </si>
   <si>
+    <t xml:space="preserve">student-inout.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">1student_03out</t>
   </si>
   <si>
+    <t xml:space="preserve">Student-out.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">2class_01timetable</t>
   </si>
   <si>
+    <t xml:space="preserve">class-titmetable.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">2class_01timetable_modal</t>
   </si>
   <si>
@@ -144,6 +168,9 @@
     <t xml:space="preserve">5manage_07teacher</t>
   </si>
   <si>
+    <t xml:space="preserve">manage-teacher.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">5manage_07teacher_modal</t>
   </si>
   <si>
@@ -156,10 +183,19 @@
     <t xml:space="preserve">etc_join</t>
   </si>
   <si>
+    <t xml:space="preserve">join.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">login</t>
   </si>
   <si>
+    <t xml:space="preserve">login.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu.html</t>
   </si>
 </sst>
 </file>
@@ -251,29 +287,37 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -525,422 +569,495 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="34.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <f aca="false">SUM(I3:I4)</f>
+        <v>36</v>
+      </c>
+      <c r="J2" s="6" t="str">
+        <f aca="false">TEXT(I3/I2*100,"0.0")&amp;"% 완료되었습니다."</f>
+        <v>41.7% 완료되었습니다.</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <f aca="false">COUNTIF(F:F,"완료")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <f aca="false">COUNTIF(F2:F37,"")</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <f aca="false">SUM(H3:H4)</f>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="5" t="str">
-        <f aca="false">TEXT(H3/H2*100,"0.0")&amp;"% 완료되었습니다."</f>
-        <v>36.1% 완료되었습니다.</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <f aca="false">COUNTIF(E:E,"완료")</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <f aca="false">COUNTIF(E2:E37,"")</f>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="3" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="D24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="D25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="D28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="D29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="D30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="D31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="D32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="D33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="D34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="D35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="D36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>5</v>
+      <c r="D37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E31:E33"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/image/design/진행상황.xlsx
+++ b/image/design/진행상황.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.255.54461"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="480" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>수정사항</t>
   </si>
@@ -457,6 +457,87 @@
   </si>
   <si>
     <t>버튼태그</t>
+  </si>
+  <si>
+    <t>진행 중</t>
+  </si>
+  <si>
+    <t>독클 목록 (잘못만듦)</t>
+  </si>
+  <si>
+    <t>잘못 만듦</t>
+  </si>
+  <si>
+    <t>학생정보</t>
+  </si>
+  <si>
+    <t>전입/전출</t>
+  </si>
+  <si>
+    <t>입탈퇴관리</t>
+  </si>
+  <si>
+    <t>시간표 등록</t>
+  </si>
+  <si>
+    <t>시간표 조회</t>
+  </si>
+  <si>
+    <t>수업 안내</t>
+  </si>
+  <si>
+    <t>수업 일지</t>
+  </si>
+  <si>
+    <t>보강 관리</t>
+  </si>
+  <si>
+    <t>상담문의 기록</t>
+  </si>
+  <si>
+    <t>선생님 관리</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>메뉴</t>
+  </si>
+  <si>
+    <t>단체 알림</t>
+  </si>
+  <si>
+    <t>manage-sms.html</t>
+  </si>
+  <si>
+    <t>잘못 만듦 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>교재 주문</t>
+  </si>
+  <si>
+    <t>추가 / 반품</t>
+  </si>
+  <si>
+    <t>교육비</t>
+  </si>
+  <si>
+    <t>교재비</t>
+  </si>
+  <si>
+    <t>교육비 관리</t>
+  </si>
+  <si>
+    <t>order.html</t>
+  </si>
+  <si>
+    <t>redorder.html</t>
+  </si>
+  <si>
+    <t>manage-deposit.html</t>
   </si>
 </sst>
 </file>
@@ -466,7 +547,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="35">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -630,8 +711,33 @@
       <name val="Consolas"/>
       <color rgb="FFCE9178"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Consolas"/>
+      <color rgb="FF569CD6"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Consolas"/>
+      <color rgb="FFCCCCCC"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Consolas"/>
+      <color rgb="FF9CDCFE"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Consolas"/>
+      <color rgb="FFCE9178"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Consolas"/>
+      <color rgb="FF808080"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,14 +939,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -983,6 +1083,16 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyProtection="0">
@@ -1176,7 +1286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1205,23 +1315,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="23" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1231,6 +1341,54 @@
     </xf>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1462,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="normal" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.500000"/>
@@ -1473,134 +1631,143 @@
     <col min="1" max="1" width="23.25499916" customWidth="1" outlineLevel="0"/>
     <col min="2" max="2" width="9.13000011" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" width="4.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="29.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="19.25499916" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="2.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="3.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" width="38.00500107" customWidth="1" outlineLevel="0"/>
-    <col min="11" max="11" width="34.63000107" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="24" width="13.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="29.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="19.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="2.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="3.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" width="38.00500107" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" width="34.63000107" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.500000" customHeight="1">
+    <row r="1" spans="1:11" ht="16.500000" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.400000" customHeight="1">
+    <row r="2" spans="1:11" ht="16.400000" customHeight="1">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2">
-        <f>SUM(I3:I4)</f>
-        <v>36</v>
-      </c>
-      <c r="J2" s="11" t="str">
-        <f>TEXT(I3/I2*100,"0.0")&amp;"% 완료되었습니다."</f>
-        <v>66.7% 완료되었습니다.</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.400000" customHeight="1">
+      <c r="J2" s="2">
+        <f>SUM(J3:J4)</f>
+        <v>33</v>
+      </c>
+      <c r="K2" s="11" t="str">
+        <f>TEXT(J3/J2*100,"0.0")&amp;"% 완료되었습니다."</f>
+        <v>87.9% 완료되었습니다.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.400000" customHeight="1">
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2">
-        <f>COUNTIF(F:F,"완료")</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.400000" customHeight="1">
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <f>COUNTIF(G:G,"완료")</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.400000" customHeight="1">
       <c r="A4" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="2">
-        <f>COUNTIF(F2:F37,"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13.800000" customHeight="1">
+      <c r="J4" s="2">
+        <f>COUNTIF(G2:G31,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13.800000" customHeight="1">
       <c r="A5" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="13.800000" customHeight="1">
+      <c r="F5" s="14"/>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13.800000" customHeight="1">
       <c r="A6" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="13.800000" customHeight="1">
+      <c r="F6" s="14"/>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13.800000" customHeight="1">
       <c r="A7" s="0" t="s">
         <v>68</v>
       </c>
@@ -1610,391 +1777,458 @@
       <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="13.800000" customHeight="1">
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13.800000" customHeight="1">
       <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="13.800000" customHeight="1">
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.800000" customHeight="1">
       <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="13.800000" customHeight="1">
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.800000" customHeight="1">
       <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="13.800000" customHeight="1">
+      <c r="F10" s="14"/>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.800000" customHeight="1">
       <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="13.800000" customHeight="1">
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.800000" customHeight="1">
       <c r="C12" s="2">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="13.800000" customHeight="1">
+      <c r="G12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13.800000" customHeight="1">
       <c r="C13" s="2">
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="13.800000" customHeight="1">
+      <c r="G13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.800000" customHeight="1">
       <c r="C14" s="2">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.800000" customHeight="1">
+      <c r="C15" s="2">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.800000" customHeight="1">
+      <c r="C16" s="2">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="13.800000" customHeight="1">
+      <c r="C17" s="2">
+        <v>17</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="13.800000" customHeight="1">
+      <c r="C18" s="2">
+        <v>18</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="13.800000" customHeight="1">
+      <c r="C19" s="2">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="3:7" ht="13.800000" customHeight="1">
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="3:7" ht="13.800000" customHeight="1">
+      <c r="C21" s="2">
+        <v>21</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="3:7" ht="13.800000" customHeight="1">
+      <c r="C22" s="2">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="13.800000" customHeight="1">
+      <c r="C23" s="2">
+        <v>23</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="13.800000" customHeight="1">
+      <c r="C24" s="2">
+        <v>24</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="13.800000" customHeight="1">
+      <c r="C25" s="2">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="13.800000" customHeight="1">
+      <c r="C26" s="2">
+        <v>27</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="13.800000" customHeight="1">
+      <c r="C27" s="2">
+        <v>28</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="13.800000" customHeight="1">
+      <c r="C28" s="2">
+        <v>29</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="3:7" ht="13.800000" customHeight="1">
+      <c r="C29" s="2">
         <v>30</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.800000" customHeight="1">
-      <c r="B15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="D29" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="2">
         <v>31</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="13.800000" customHeight="1">
-      <c r="C16" s="2">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="D30" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="2">
         <v>32</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="13.800000" customHeight="1">
-      <c r="C17" s="2">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="13.800000" customHeight="1">
-      <c r="B18" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="D31" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" ht="13.800000" customHeight="1"/>
+    <row r="34" spans="3:7">
+      <c r="E34" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="2">
         <v>17</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D35" s="25"/>
+      <c r="E35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="13.800000" customHeight="1">
-      <c r="C19" s="2">
+      <c r="G35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="2">
         <v>18</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="13.800000" customHeight="1">
-      <c r="C20" s="2">
+      <c r="G36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="2">
         <v>19</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D37" s="25"/>
+      <c r="E37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="13.800000" customHeight="1">
-      <c r="C21" s="2">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" ht="13.800000" customHeight="1">
-      <c r="C22" s="2">
-        <v>21</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" ht="13.800000" customHeight="1">
-      <c r="C23" s="2">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" ht="13.800000" customHeight="1">
-      <c r="C24" s="2">
-        <v>23</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" ht="13.800000" customHeight="1">
-      <c r="C25" s="2">
-        <v>24</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" ht="13.800000" customHeight="1">
-      <c r="C26" s="2">
-        <v>25</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" ht="13.800000" customHeight="1">
-      <c r="C27" s="2">
-        <v>26</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" ht="13.800000" customHeight="1">
-      <c r="C28" s="2">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" ht="13.800000" customHeight="1">
-      <c r="C29" s="2">
-        <v>28</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" ht="13.800000" customHeight="1">
-      <c r="C30" s="2">
-        <v>29</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" ht="13.800000" customHeight="1">
-      <c r="C31" s="2">
-        <v>30</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="13.800000" customHeight="1">
-      <c r="C32" s="2">
-        <v>31</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="13.800000" customHeight="1">
-      <c r="C33" s="2">
-        <v>32</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="13.800000" customHeight="1">
-      <c r="C34" s="2">
-        <v>33</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="3:6" ht="13.800000" customHeight="1">
-      <c r="C35" s="2">
-        <v>34</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" ht="13.800000" customHeight="1">
-      <c r="C36" s="2">
-        <v>35</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" ht="13.800000" customHeight="1">
-      <c r="C37" s="2">
-        <v>36</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="0"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E31:E33"/>
+  <mergeCells count="13">
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>

--- a/image/design/진행상황.xlsx
+++ b/image/design/진행상황.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.255.54461"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="460" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>수정사항</t>
   </si>
@@ -538,6 +538,12 @@
   </si>
   <si>
     <t>manage-deposit.html</t>
+  </si>
+  <si>
+    <t>에러체크</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1388,6 +1394,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1623,7 +1633,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="normal" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.500000"/>
@@ -1634,7 +1644,7 @@
     <col min="4" max="4" style="24" width="13.13000011" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" width="29.00499916" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" width="19.25499916" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" width="2.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="26" width="11.13000011" customWidth="1" outlineLevel="0"/>
     <col min="10" max="10" width="3.63000011" customWidth="1" outlineLevel="0"/>
     <col min="11" max="11" width="38.00500107" customWidth="1" outlineLevel="0"/>
     <col min="12" max="12" width="34.63000107" customWidth="1" outlineLevel="0"/>
@@ -1655,6 +1665,9 @@
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="26" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="16.400000" customHeight="1">
       <c r="A2" s="0" t="s">
@@ -1673,6 +1686,9 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="26" t="s">
+        <v>102</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1935,7 +1951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="13.800000" customHeight="1">
+    <row r="17" spans="3:8" ht="13.800000" customHeight="1">
       <c r="C17" s="2">
         <v>17</v>
       </c>
@@ -1952,7 +1968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="13.800000" customHeight="1">
+    <row r="18" spans="3:8" ht="13.800000" customHeight="1">
       <c r="C18" s="2">
         <v>18</v>
       </c>
@@ -1969,7 +1985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="13.800000" customHeight="1">
+    <row r="19" spans="3:8" ht="13.800000" customHeight="1">
       <c r="C19" s="2">
         <v>19</v>
       </c>
@@ -1984,7 +2000,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" ht="13.800000" customHeight="1">
+    <row r="20" spans="3:8" ht="13.800000" customHeight="1">
       <c r="C20" s="2">
         <v>20</v>
       </c>
@@ -1995,7 +2011,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" ht="13.800000" customHeight="1">
+    <row r="21" spans="3:8" ht="13.800000" customHeight="1">
       <c r="C21" s="2">
         <v>21</v>
       </c>
@@ -2008,7 +2024,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" ht="13.800000" customHeight="1">
+    <row r="22" spans="3:8" ht="13.800000" customHeight="1">
       <c r="C22" s="2">
         <v>22</v>
       </c>
@@ -2025,7 +2041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="13.800000" customHeight="1">
+    <row r="23" spans="3:8" ht="13.800000" customHeight="1">
       <c r="C23" s="2">
         <v>23</v>
       </c>
@@ -2038,7 +2054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="13.800000" customHeight="1">
+    <row r="24" spans="3:8" ht="13.800000" customHeight="1">
       <c r="C24" s="2">
         <v>24</v>
       </c>
@@ -2051,7 +2067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="13.800000" customHeight="1">
+    <row r="25" spans="3:8" ht="13.800000" customHeight="1">
       <c r="C25" s="2">
         <v>26</v>
       </c>
@@ -2068,7 +2084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="13.800000" customHeight="1">
+    <row r="26" spans="3:8" ht="13.800000" customHeight="1">
       <c r="C26" s="2">
         <v>27</v>
       </c>
@@ -2081,7 +2097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="3:7" ht="13.800000" customHeight="1">
+    <row r="27" spans="3:8" ht="13.800000" customHeight="1">
       <c r="C27" s="2">
         <v>28</v>
       </c>
@@ -2094,7 +2110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="3:7" ht="13.800000" customHeight="1">
+    <row r="28" spans="3:8" ht="13.800000" customHeight="1">
       <c r="C28" s="2">
         <v>29</v>
       </c>
@@ -2107,7 +2123,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="3:7" ht="13.800000" customHeight="1">
+    <row r="29" spans="3:8" ht="13.800000" customHeight="1">
       <c r="C29" s="2">
         <v>30</v>
       </c>
@@ -2123,8 +2139,11 @@
       <c r="G29" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="3:7">
+      <c r="H29" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
       <c r="C30" s="2">
         <v>31</v>
       </c>
@@ -2140,8 +2159,11 @@
       <c r="G30" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="3:7">
+      <c r="H30" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
       <c r="C31" s="2">
         <v>32</v>
       </c>
@@ -2156,6 +2178,9 @@
       </c>
       <c r="G31" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="32" ht="13.800000" customHeight="1"/>
@@ -2206,13 +2231,6 @@
       <c r="G37" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="3:7">
-      <c r="C38" s="0"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="13">
